--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9DB07-E42E-4891-8EAC-B2E00C7B74B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63A2E0-ED0E-4D70-AE54-F234B1F55489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="161">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>Error thrown</t>
+  </si>
+  <si>
+    <t>&lt;current date - 1 day&gt;</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1702,6 +1705,20 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1717,86 +1734,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1804,35 +1848,86 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1843,14 +1938,29 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1858,99 +1968,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -1973,23 +1990,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2324,12 +2324,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
       <c r="H1" s="51" t="s">
         <v>1</v>
       </c>
@@ -2337,11 +2337,11 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="2"/>
@@ -2504,21 +2504,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="50"/>
@@ -2531,6 +2531,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2563,43 +2566,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="G5" s="81" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="G5" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -2614,39 +2617,39 @@
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="66" t="s">
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="66"/>
+      <c r="Q6" s="87"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="63" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="65"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="23" t="s">
         <v>33</v>
       </c>
@@ -2662,20 +2665,20 @@
       <c r="M7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="63"/>
-      <c r="P7" s="62" t="s">
+      <c r="O7" s="84"/>
+      <c r="P7" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="63"/>
+      <c r="Q7" s="84"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>40</v>
@@ -2701,22 +2704,22 @@
       <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="59" t="s">
+      <c r="O8" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="58" t="s">
+      <c r="P8" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="59"/>
+      <c r="Q8" s="82"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2744,22 +2747,22 @@
       <c r="M9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="59" t="s">
+      <c r="N9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="59"/>
+      <c r="P9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="82"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>53</v>
@@ -2785,20 +2788,20 @@
       <c r="M10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="70" t="s">
+      <c r="N10" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="71"/>
-      <c r="P10" s="70" t="s">
+      <c r="O10" s="76"/>
+      <c r="P10" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="71"/>
+      <c r="Q10" s="76"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="63" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2826,20 +2829,20 @@
       <c r="M11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="71"/>
-      <c r="P11" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="71"/>
+      <c r="N11" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="76"/>
+      <c r="P11" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="76"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>59</v>
@@ -2869,16 +2872,16 @@
         <v>46</v>
       </c>
       <c r="O12" s="9"/>
-      <c r="P12" s="72" t="s">
+      <c r="P12" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="73"/>
+      <c r="Q12" s="78"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="64" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2906,20 +2909,20 @@
       <c r="M13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="73"/>
-      <c r="P13" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="73"/>
+      <c r="N13" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="78"/>
+      <c r="P13" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="78"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>64</v>
@@ -2945,18 +2948,18 @@
       <c r="M14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="68" t="s">
+      <c r="N14" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="69"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="61"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="80"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="4"/>
@@ -2972,16 +2975,16 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="61"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="80"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="19"/>
@@ -2991,16 +2994,16 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="61"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="80"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="4"/>
@@ -3012,16 +3015,16 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="61"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="80"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="19"/>
@@ -3031,16 +3034,16 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="61"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="80"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="4"/>
@@ -3052,16 +3055,16 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="61"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="80"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
@@ -3069,11 +3072,36 @@
       <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -3090,33 +3118,11 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3152,44 +3158,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -3202,45 +3208,45 @@
         <v>67</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="86" t="s">
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="88"/>
+      <c r="R6" s="98"/>
     </row>
     <row r="7" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="75">
+      <c r="B7" s="64">
         <v>1</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="91" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="65"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="23" t="s">
         <v>33</v>
       </c>
@@ -3259,14 +3265,14 @@
       <c r="P7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="62" t="s">
+      <c r="Q7" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="63"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="91"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="2" t="s">
         <v>77</v>
       </c>
@@ -3286,12 +3292,12 @@
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="100"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="91"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
@@ -3321,14 +3327,14 @@
       <c r="P9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="72" t="s">
+      <c r="Q9" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="R9" s="73"/>
+      <c r="R9" s="78"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="91"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
@@ -3358,14 +3364,14 @@
       <c r="P10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="84" t="s">
+      <c r="Q10" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="85"/>
+      <c r="R10" s="100"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="91"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="2" t="s">
         <v>85</v>
       </c>
@@ -3395,14 +3401,14 @@
       <c r="P11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="84" t="s">
+      <c r="Q11" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="85"/>
+      <c r="R11" s="100"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="2" t="s">
         <v>87</v>
       </c>
@@ -3432,16 +3438,16 @@
       <c r="P12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="84" t="s">
+      <c r="Q12" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="85"/>
+      <c r="R12" s="100"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="75">
+      <c r="B13" s="64">
         <v>2</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="64" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3475,14 +3481,14 @@
       <c r="P13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="72" t="s">
+      <c r="Q13" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="73"/>
+      <c r="R13" s="78"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="2" t="s">
         <v>92</v>
       </c>
@@ -3504,12 +3510,12 @@
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="100"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="2" t="s">
         <v>93</v>
       </c>
@@ -3531,12 +3537,12 @@
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="85"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="100"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
@@ -3552,12 +3558,12 @@
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="85"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="100"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="2" t="s">
         <v>95</v>
       </c>
@@ -3573,12 +3579,12 @@
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="85"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="100"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="2" t="s">
         <v>96</v>
       </c>
@@ -3594,14 +3600,14 @@
       <c r="N18" s="34"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="85"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="100"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="75">
+      <c r="B19" s="64">
         <v>3</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="91" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3619,12 +3625,12 @@
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="85"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="100"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="91"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="2" t="s">
         <v>99</v>
       </c>
@@ -3640,12 +3646,12 @@
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="85"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="100"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="91"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="2" t="s">
         <v>100</v>
       </c>
@@ -3661,12 +3667,12 @@
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="85"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="100"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="91"/>
-      <c r="C22" s="93"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="2" t="s">
         <v>101</v>
       </c>
@@ -3682,12 +3688,12 @@
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="100"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
@@ -3703,12 +3709,12 @@
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="85"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="100"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="76"/>
-      <c r="C24" s="94"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="2" t="s">
         <v>103</v>
       </c>
@@ -3724,14 +3730,14 @@
       <c r="N24" s="34"/>
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="85"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="75">
+      <c r="B25" s="64">
         <v>4</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="91" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3749,60 +3755,84 @@
       <c r="N25" s="34"/>
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="85"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="100"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="93"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="91"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
       <c r="N28" s="43"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
       <c r="N29" s="44"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="76"/>
-      <c r="C30" s="94"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3819,33 +3849,12 @@
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3874,62 +3883,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="66" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="66"/>
+      <c r="N4" s="87"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="127"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="26" t="s">
         <v>33</v>
       </c>
@@ -3945,10 +3954,10 @@
       <c r="J5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="121" t="s">
+      <c r="K5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="122"/>
+      <c r="L5" s="105"/>
       <c r="M5" s="26" t="s">
         <v>39</v>
       </c>
@@ -3960,7 +3969,7 @@
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="119" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -3984,10 +3993,10 @@
       <c r="J6" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="124" t="s">
+      <c r="L6" s="107" t="s">
         <v>47</v>
       </c>
       <c r="M6" s="29" t="s">
@@ -4002,7 +4011,7 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="31" t="s">
         <v>113</v>
       </c>
@@ -4024,10 +4033,10 @@
       <c r="J7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="130" t="s">
+      <c r="K7" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="131"/>
+      <c r="L7" s="114"/>
       <c r="M7" s="8" t="s">
         <v>114</v>
       </c>
@@ -4040,7 +4049,7 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="31" t="s">
         <v>115</v>
       </c>
@@ -4078,7 +4087,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="110"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="31" t="s">
         <v>50</v>
       </c>
@@ -4100,10 +4109,10 @@
       <c r="J9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="132" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="133"/>
+      <c r="K9" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="116"/>
       <c r="M9" s="12" t="s">
         <v>50</v>
       </c>
@@ -4116,7 +4125,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="110"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="31" t="s">
         <v>52</v>
       </c>
@@ -4138,10 +4147,10 @@
       <c r="J10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="125" t="s">
+      <c r="K10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="126"/>
+      <c r="L10" s="109"/>
       <c r="M10" s="6" t="s">
         <v>62</v>
       </c>
@@ -4154,7 +4163,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="31" t="s">
         <v>52</v>
       </c>
@@ -4176,10 +4185,10 @@
       <c r="J11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="125" t="s">
+      <c r="K11" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="126"/>
+      <c r="L11" s="109"/>
       <c r="M11" s="5" t="s">
         <v>48</v>
       </c>
@@ -4192,7 +4201,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="110"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="31" t="s">
         <v>52</v>
       </c>
@@ -4214,10 +4223,10 @@
       <c r="J12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="125" t="s">
+      <c r="K12" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="126"/>
+      <c r="L12" s="109"/>
       <c r="M12" s="5" t="s">
         <v>48</v>
       </c>
@@ -4230,7 +4239,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="32" t="s">
         <v>50</v>
       </c>
@@ -4252,10 +4261,10 @@
       <c r="J13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="120"/>
+      <c r="K13" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="103"/>
       <c r="M13" s="25" t="s">
         <v>50</v>
       </c>
@@ -4290,98 +4299,98 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="H17" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="98" t="s">
+      <c r="I17" s="133"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="99"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="132"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="108" t="s">
+      <c r="G18" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="105"/>
-      <c r="J18" s="96" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="96" t="s">
+      <c r="K18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="97" t="s">
+      <c r="L18" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="102" t="s">
+      <c r="M18" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="96" t="s">
+      <c r="N18" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="O18" s="96" t="s">
+      <c r="O18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="97" t="s">
+      <c r="P18" s="129" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="97"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="129"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
@@ -4398,10 +4407,10 @@
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="115" t="s">
+      <c r="H20" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="116"/>
+      <c r="I20" s="125"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
@@ -4429,20 +4438,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -4459,25 +4460,36 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F33B42-28C1-449D-841F-4540C948C267}">
-  <dimension ref="B3:P15"/>
+  <dimension ref="B3:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,14 +4506,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -4509,22 +4521,22 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="139"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="145"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -4537,55 +4549,55 @@
         <v>67</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="135" t="s">
+      <c r="K6" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="136"/>
-      <c r="M6" s="86" t="s">
+      <c r="L6" s="142"/>
+      <c r="M6" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="88"/>
+      <c r="N6" s="98"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="75">
+      <c r="B7" s="64">
         <v>1</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="91" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="65"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="23" t="s">
         <v>137</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="63"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="91"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="2" t="s">
         <v>141</v>
       </c>
@@ -4605,16 +4617,16 @@
       <c r="L8" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="84" t="s">
+      <c r="M8" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="N8" s="85"/>
+      <c r="N8" s="100"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75">
+      <c r="B9" s="64">
         <v>2</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="91" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -4636,14 +4648,14 @@
       <c r="L9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="73"/>
+      <c r="N9" s="78"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="94"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="2" t="s">
         <v>153</v>
       </c>
@@ -4663,10 +4675,10 @@
       <c r="L10" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="M10" s="84" t="s">
+      <c r="M10" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="N10" s="85"/>
+      <c r="N10" s="100"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G11" s="19">
@@ -4683,49 +4695,49 @@
         <v>147</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="N11" s="61"/>
+      <c r="N11" s="80"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
       <c r="N14" s="43"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
@@ -4734,6 +4746,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4742,7 +4757,7 @@
   <dimension ref="B3:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4758,44 +4773,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="152"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="151"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="62" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="63"/>
+      <c r="I4" s="84"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="127"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="26" t="s">
         <v>137</v>
       </c>
@@ -4813,7 +4828,7 @@
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="119" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -4822,25 +4837,25 @@
       <c r="E6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="31" t="s">
         <v>156</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="12"/>
       <c r="I7" s="2"/>
     </row>
@@ -4849,15 +4864,15 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="31" t="s">
         <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="12"/>
       <c r="I8" s="2"/>
     </row>
@@ -4866,7 +4881,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="110"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="31" t="s">
         <v>157</v>
       </c>
@@ -4883,7 +4898,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="110"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="31" t="s">
         <v>52</v>
       </c>
@@ -4896,7 +4911,7 @@
       <c r="G10" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="149" t="s">
+      <c r="H10" s="4" t="s">
         <v>145</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -4908,7 +4923,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="31" t="s">
         <v>52</v>
       </c>
@@ -4921,7 +4936,7 @@
       <c r="G11" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="149" t="s">
+      <c r="H11" s="4" t="s">
         <v>146</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -4933,7 +4948,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="110"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="31" t="s">
         <v>52</v>
       </c>
@@ -4946,7 +4961,7 @@
       <c r="G12" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="149" t="s">
+      <c r="H12" s="4" t="s">
         <v>145</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -4958,23 +4973,23 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="32" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="146" t="s">
+      <c r="F13" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="146" t="s">
+      <c r="G13" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="146" t="s">
+      <c r="H13" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="148" t="s">
+      <c r="I13" s="57" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5005,98 +5020,98 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="H17" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="140" t="s">
+      <c r="I17" s="133"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="148"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="108" t="s">
+      <c r="G18" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="104" t="s">
+      <c r="H18" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="105"/>
-      <c r="J18" s="96" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="96" t="s">
+      <c r="K18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="97" t="s">
+      <c r="L18" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="102" t="s">
+      <c r="M18" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="96" t="s">
+      <c r="N18" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="O18" s="96" t="s">
+      <c r="O18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="97" t="s">
+      <c r="P18" s="129" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="97"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="129"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
@@ -5117,10 +5132,10 @@
       <c r="G20" s="46">
         <v>2</v>
       </c>
-      <c r="H20" s="115" t="s">
+      <c r="H20" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="116"/>
+      <c r="I20" s="125"/>
       <c r="J20" s="2">
         <v>2</v>
       </c>
@@ -5145,43 +5160,49 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5329,19 +5350,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5365,9 +5382,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63A2E0-ED0E-4D70-AE54-F234B1F55489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D7D7FD-8C52-4892-B6E2-1EDAF2F3E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,18 +826,12 @@
     <t>Error message :"invalid date"</t>
   </si>
   <si>
-    <t>noTimeDate in the future</t>
-  </si>
-  <si>
     <t>&lt;current date + 1 day&gt;</t>
   </si>
   <si>
     <t>03. noTimeDate = &lt;current date + 1 day&gt;</t>
   </si>
   <si>
-    <t>04. noTimeDate = &lt;current date&gt;</t>
-  </si>
-  <si>
     <t>TC1_BVA</t>
   </si>
   <si>
@@ -857,6 +851,12 @@
   </si>
   <si>
     <t>&lt;current date - 1 day&gt;</t>
+  </si>
+  <si>
+    <t>04. noTimeDate = &lt;current date - 1&gt;</t>
+  </si>
+  <si>
+    <t>noTimeDate not in the past</t>
   </si>
 </sst>
 </file>
@@ -1734,6 +1734,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1770,49 +1815,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1830,26 +1851,74 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1899,75 +1968,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -1983,6 +1983,15 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1991,15 +2000,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2574,35 +2574,35 @@
       <c r="E1" s="61"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="G5" s="70" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="G5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -2617,39 +2617,39 @@
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="87" t="s">
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="87"/>
+      <c r="Q6" s="72"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="78" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="23" t="s">
         <v>33</v>
       </c>
@@ -2665,20 +2665,20 @@
       <c r="M7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="83" t="s">
+      <c r="N7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="83" t="s">
+      <c r="O7" s="69"/>
+      <c r="P7" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="84"/>
+      <c r="Q7" s="69"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>40</v>
@@ -2704,22 +2704,22 @@
       <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="82" t="s">
+      <c r="O8" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="81" t="s">
+      <c r="P8" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="82"/>
+      <c r="Q8" s="65"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="78" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2747,22 +2747,22 @@
       <c r="M9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="82" t="s">
+      <c r="N9" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="82"/>
+      <c r="P9" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="65"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>53</v>
@@ -2788,20 +2788,20 @@
       <c r="M10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="75" t="s">
+      <c r="N10" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="75" t="s">
+      <c r="O10" s="77"/>
+      <c r="P10" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="76"/>
+      <c r="Q10" s="77"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="78" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2829,20 +2829,20 @@
       <c r="M11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="76"/>
-      <c r="P11" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="76"/>
+      <c r="N11" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="77"/>
+      <c r="P11" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="77"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>59</v>
@@ -2872,16 +2872,16 @@
         <v>46</v>
       </c>
       <c r="O12" s="9"/>
-      <c r="P12" s="77" t="s">
+      <c r="P12" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="78"/>
+      <c r="Q12" s="75"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="79" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2909,20 +2909,20 @@
       <c r="M13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="78"/>
-      <c r="P13" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="78"/>
+      <c r="N13" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="75"/>
+      <c r="P13" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="75"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>64</v>
@@ -2948,18 +2948,18 @@
       <c r="M14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="73" t="s">
+      <c r="N14" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="74"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="80"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="67"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="78" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="4"/>
@@ -2975,16 +2975,16 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="80"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="67"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="19"/>
@@ -2994,16 +2994,16 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="80"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="78" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="4"/>
@@ -3015,16 +3015,16 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="80"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="67"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="19"/>
@@ -3034,16 +3034,16 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="80"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="67"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="78" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="4"/>
@@ -3055,16 +3055,16 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="80"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="67"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
@@ -3072,36 +3072,11 @@
       <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -3118,6 +3093,31 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3166,14 +3166,14 @@
       <c r="E1" s="61"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="96" t="s">
@@ -3182,20 +3182,20 @@
       <c r="C5" s="96"/>
       <c r="D5" s="96"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
     </row>
     <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -3208,45 +3208,45 @@
         <v>67</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="97" t="s">
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="98"/>
+      <c r="R6" s="94"/>
     </row>
     <row r="7" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="64">
+      <c r="B7" s="79">
         <v>1</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="98" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="23" t="s">
         <v>33</v>
       </c>
@@ -3265,14 +3265,14 @@
       <c r="P7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="83" t="s">
+      <c r="Q7" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="84"/>
+      <c r="R7" s="69"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="2" t="s">
         <v>77</v>
       </c>
@@ -3292,12 +3292,12 @@
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="100"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="91"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="90"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
@@ -3327,14 +3327,14 @@
       <c r="P9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="77" t="s">
+      <c r="Q9" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="R9" s="78"/>
+      <c r="R9" s="75"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="90"/>
-      <c r="C10" s="92"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
@@ -3364,14 +3364,14 @@
       <c r="P10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="99" t="s">
+      <c r="Q10" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="100"/>
+      <c r="R10" s="91"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="2" t="s">
         <v>85</v>
       </c>
@@ -3401,14 +3401,14 @@
       <c r="P11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="99" t="s">
+      <c r="Q11" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="100"/>
+      <c r="R11" s="91"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="2" t="s">
         <v>87</v>
       </c>
@@ -3438,16 +3438,16 @@
       <c r="P12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="99" t="s">
+      <c r="Q12" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="100"/>
+      <c r="R12" s="91"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="64">
+      <c r="B13" s="79">
         <v>2</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="79" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3481,14 +3481,14 @@
       <c r="P13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="77" t="s">
+      <c r="Q13" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="78"/>
+      <c r="R13" s="75"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="2" t="s">
         <v>92</v>
       </c>
@@ -3510,12 +3510,12 @@
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="100"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="91"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="2" t="s">
         <v>93</v>
       </c>
@@ -3537,12 +3537,12 @@
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="100"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="91"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
@@ -3558,12 +3558,12 @@
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="100"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="91"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="2" t="s">
         <v>95</v>
       </c>
@@ -3579,12 +3579,12 @@
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="100"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="91"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="2" t="s">
         <v>96</v>
       </c>
@@ -3600,14 +3600,14 @@
       <c r="N18" s="34"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="100"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="91"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="64">
+      <c r="B19" s="79">
         <v>3</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="98" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3625,12 +3625,12 @@
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="100"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="91"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="90"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="2" t="s">
         <v>99</v>
       </c>
@@ -3646,12 +3646,12 @@
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="100"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="91"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="90"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="2" t="s">
         <v>100</v>
       </c>
@@ -3667,12 +3667,12 @@
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="100"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="91"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="90"/>
-      <c r="C22" s="92"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="2" t="s">
         <v>101</v>
       </c>
@@ -3688,12 +3688,12 @@
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="100"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="91"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
-      <c r="C23" s="92"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
@@ -3709,12 +3709,12 @@
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="100"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="91"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="65"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="2" t="s">
         <v>103</v>
       </c>
@@ -3730,14 +3730,14 @@
       <c r="N24" s="34"/>
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="91"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="64">
+      <c r="B25" s="79">
         <v>4</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="98" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3755,31 +3755,31 @@
       <c r="N25" s="34"/>
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="100"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="90"/>
-      <c r="C26" s="92"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
-      <c r="C27" s="92"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="90"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
       <c r="I28" s="95"/>
       <c r="J28" s="95"/>
       <c r="K28" s="95"/>
@@ -3788,35 +3788,43 @@
       <c r="N28" s="43"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="90"/>
-      <c r="C29" s="92"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
       <c r="N29" s="44"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="65"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="B5:D5"/>
@@ -3833,22 +3841,14 @@
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3891,54 +3891,54 @@
       <c r="E1" s="61"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="87" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="87"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="121"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="26" t="s">
         <v>33</v>
       </c>
@@ -3954,10 +3954,10 @@
       <c r="J5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="105"/>
+      <c r="L5" s="128"/>
       <c r="M5" s="26" t="s">
         <v>39</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="111" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -3993,10 +3993,10 @@
       <c r="J6" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="130" t="s">
         <v>47</v>
       </c>
       <c r="M6" s="29" t="s">
@@ -4011,7 +4011,7 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="31" t="s">
         <v>113</v>
       </c>
@@ -4033,10 +4033,10 @@
       <c r="J7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="113" t="s">
+      <c r="K7" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="114"/>
+      <c r="L7" s="137"/>
       <c r="M7" s="8" t="s">
         <v>114</v>
       </c>
@@ -4049,7 +4049,7 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="119"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="31" t="s">
         <v>115</v>
       </c>
@@ -4087,7 +4087,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="31" t="s">
         <v>50</v>
       </c>
@@ -4109,10 +4109,10 @@
       <c r="J9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="116"/>
+      <c r="K9" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="139"/>
       <c r="M9" s="12" t="s">
         <v>50</v>
       </c>
@@ -4125,7 +4125,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="31" t="s">
         <v>52</v>
       </c>
@@ -4147,10 +4147,10 @@
       <c r="J10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="108" t="s">
+      <c r="K10" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="109"/>
+      <c r="L10" s="132"/>
       <c r="M10" s="6" t="s">
         <v>62</v>
       </c>
@@ -4163,7 +4163,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="119"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="31" t="s">
         <v>52</v>
       </c>
@@ -4185,10 +4185,10 @@
       <c r="J11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="108" t="s">
+      <c r="K11" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="109"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="5" t="s">
         <v>48</v>
       </c>
@@ -4201,7 +4201,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="119"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="31" t="s">
         <v>52</v>
       </c>
@@ -4223,10 +4223,10 @@
       <c r="J12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="108" t="s">
+      <c r="K12" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="109"/>
+      <c r="L12" s="132"/>
       <c r="M12" s="5" t="s">
         <v>48</v>
       </c>
@@ -4239,7 +4239,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="120"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="32" t="s">
         <v>50</v>
       </c>
@@ -4261,10 +4261,10 @@
       <c r="J13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="103"/>
+      <c r="K13" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="126"/>
       <c r="M13" s="25" t="s">
         <v>50</v>
       </c>
@@ -4299,98 +4299,98 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="107"/>
       <c r="G17" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="130" t="s">
+      <c r="H17" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="133"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="130" t="s">
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="133"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="132"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="107"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="138" t="s">
+      <c r="G18" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="134" t="s">
+      <c r="H18" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="135"/>
-      <c r="J18" s="128" t="s">
+      <c r="I18" s="121"/>
+      <c r="J18" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="128" t="s">
+      <c r="K18" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="129" t="s">
+      <c r="L18" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="139" t="s">
+      <c r="M18" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="128" t="s">
+      <c r="N18" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="O18" s="128" t="s">
+      <c r="O18" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="129" t="s">
+      <c r="P18" s="102" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="129"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="102"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
@@ -4407,10 +4407,10 @@
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="124" t="s">
+      <c r="H20" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="125"/>
+      <c r="I20" s="117"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
@@ -4438,12 +4438,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -4460,20 +4468,12 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4489,7 +4489,7 @@
   <dimension ref="B3:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,14 +4506,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -4549,55 +4549,55 @@
         <v>67</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="70" t="s">
         <v>73</v>
       </c>
       <c r="K6" s="141" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="142"/>
-      <c r="M6" s="97" t="s">
+      <c r="M6" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="98"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="64">
+      <c r="B7" s="79">
         <v>1</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="98" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="23" t="s">
         <v>137</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="84"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="2" t="s">
         <v>141</v>
       </c>
@@ -4617,20 +4617,20 @@
       <c r="L8" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="N8" s="100"/>
+      <c r="N8" s="91"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="64">
+      <c r="B9" s="79">
         <v>2</v>
       </c>
-      <c r="C9" s="91" t="s">
-        <v>150</v>
+      <c r="C9" s="98" t="s">
+        <v>160</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" s="19">
         <v>2</v>
@@ -4648,16 +4648,16 @@
       <c r="L9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="M9" s="79" t="s">
+      <c r="M9" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="78"/>
+      <c r="N9" s="75"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G10" s="23">
         <v>3</v>
@@ -4673,12 +4673,12 @@
         <v>147</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="M10" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="N10" s="100"/>
+      <c r="N10" s="91"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G11" s="19">
@@ -4695,16 +4695,16 @@
         <v>147</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="M11" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="N11" s="80"/>
+      <c r="N11" s="67"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="95"/>
       <c r="J14" s="95"/>
       <c r="K14" s="95"/>
@@ -4713,23 +4713,15 @@
       <c r="N14" s="43"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
       <c r="N15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
@@ -4743,6 +4735,14 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4773,44 +4773,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="148"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="83" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="84"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="121"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="110"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="26" t="s">
         <v>137</v>
       </c>
@@ -4828,7 +4828,7 @@
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="111" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -4847,9 +4847,9 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>52</v>
@@ -4864,7 +4864,7 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="119"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="31" t="s">
         <v>113</v>
       </c>
@@ -4881,9 +4881,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
@@ -4898,12 +4898,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="31" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>142</v>
@@ -4923,12 +4923,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="119"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="31" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>144</v>
@@ -4940,7 +4940,7 @@
         <v>146</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="119"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="31" t="s">
         <v>52</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>147</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>145</v>
@@ -4973,7 +4973,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="120"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="32" t="s">
         <v>52</v>
       </c>
@@ -4987,10 +4987,10 @@
         <v>148</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5020,98 +5020,98 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="107"/>
       <c r="G17" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="130" t="s">
+      <c r="H17" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="133"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="146" t="s">
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="148"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="151"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="138" t="s">
+      <c r="G18" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="134" t="s">
+      <c r="H18" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="135"/>
-      <c r="J18" s="128" t="s">
+      <c r="I18" s="121"/>
+      <c r="J18" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="128" t="s">
+      <c r="K18" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="129" t="s">
+      <c r="L18" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="139" t="s">
+      <c r="M18" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="128" t="s">
+      <c r="N18" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="O18" s="128" t="s">
+      <c r="O18" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="129" t="s">
+      <c r="P18" s="102" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="129"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="102"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
@@ -5132,10 +5132,10 @@
       <c r="G20" s="46">
         <v>2</v>
       </c>
-      <c r="H20" s="124" t="s">
+      <c r="H20" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="125"/>
+      <c r="I20" s="117"/>
       <c r="J20" s="2">
         <v>2</v>
       </c>
@@ -5160,21 +5160,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -5187,6 +5172,21 @@
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5197,12 +5197,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5350,15 +5347,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5382,10 +5383,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D7D7FD-8C52-4892-B6E2-1EDAF2F3E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9AA70D-FB99-4567-94E2-19B8001A2D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="F01.BVA" sheetId="3" r:id="rId3"/>
     <sheet name="BBT-TCs" sheetId="4" r:id="rId4"/>
     <sheet name="BVA" sheetId="5" r:id="rId5"/>
-    <sheet name="TCs" sheetId="6" r:id="rId6"/>
+    <sheet name="ECP" sheetId="7" r:id="rId6"/>
+    <sheet name="TCs" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="185">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -857,6 +858,78 @@
   </si>
   <si>
     <t>noTimeDate not in the past</t>
+  </si>
+  <si>
+    <t>2025, FEBRUARY, 28</t>
+  </si>
+  <si>
+    <t>2025, FEBRUARY, 28 10:30</t>
+  </si>
+  <si>
+    <t>invalidTime</t>
+  </si>
+  <si>
+    <t>current date</t>
+  </si>
+  <si>
+    <t>IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>&lt;current date -1 day&gt;</t>
+  </si>
+  <si>
+    <t>time format HH:mm</t>
+  </si>
+  <si>
+    <t>time hh&lt;=23, mm&lt;=59</t>
+  </si>
+  <si>
+    <t>date &gt;= current date</t>
+  </si>
+  <si>
+    <t>current date -1</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>not time format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hh&lt;=23, mm&lt;=59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hh&gt;23, mm&gt;59</t>
+  </si>
+  <si>
+    <t>date&lt; current date</t>
+  </si>
+  <si>
+    <t>1, 3, 5</t>
+  </si>
+  <si>
+    <t>10:30 2025, FEBRUARY, 28</t>
+  </si>
+  <si>
+    <t>time format</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>2, 5</t>
+  </si>
+  <si>
+    <t>25:65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> current date</t>
+  </si>
+  <si>
+    <t>1,4, 5</t>
+  </si>
+  <si>
+    <t>1,3,6</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1734,86 +1807,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1821,53 +1921,119 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1875,99 +2041,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -1983,6 +2056,15 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1992,15 +2074,20 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2311,19 +2398,19 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="9" max="9" width="32.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C1" s="59" t="s">
         <v>0</v>
       </c>
@@ -2336,14 +2423,14 @@
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H2" s="62" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -2352,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2450,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2374,7 +2461,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="37"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
@@ -2386,40 +2473,40 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -2427,7 +2514,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2435,7 +2522,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -2443,32 +2530,32 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" s="49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C20" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2485,7 +2572,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2502,7 +2589,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="48"/>
       <c r="B24" s="58" t="s">
         <v>21</v>
@@ -2520,7 +2607,7 @@
       <c r="M24" s="58"/>
       <c r="N24" s="58"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C26" s="50"/>
     </row>
   </sheetData>
@@ -2545,27 +2632,27 @@
   <dimension ref="B1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B3" sqref="B3:Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.453125" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
@@ -2573,38 +2660,38 @@
       <c r="D1" s="60"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="G5" s="85" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="G5" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="23" t="s">
         <v>24</v>
       </c>
@@ -2617,39 +2704,39 @@
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="72" t="s">
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="72"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="87"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="63" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="23" t="s">
         <v>33</v>
       </c>
@@ -2665,20 +2752,20 @@
       <c r="M7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="68" t="s">
+      <c r="N7" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="69"/>
-      <c r="P7" s="68" t="s">
+      <c r="O7" s="84"/>
+      <c r="P7" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="69"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="84"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>40</v>
@@ -2704,22 +2791,22 @@
       <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="65"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="82"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="63" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2747,22 +2834,22 @@
       <c r="M9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="65" t="s">
+      <c r="N9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="65"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="82"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>53</v>
@@ -2788,20 +2875,20 @@
       <c r="M10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="77"/>
-      <c r="P10" s="76" t="s">
+      <c r="O10" s="76"/>
+      <c r="P10" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="77"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="76"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="63" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2829,20 +2916,20 @@
       <c r="M11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="77"/>
-      <c r="P11" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="77"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="76"/>
+      <c r="P11" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="76"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>59</v>
@@ -2872,16 +2959,16 @@
         <v>46</v>
       </c>
       <c r="O12" s="9"/>
-      <c r="P12" s="74" t="s">
+      <c r="P12" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="75"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="78"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="64" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2909,20 +2996,20 @@
       <c r="M13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="75"/>
-      <c r="P13" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="75"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="78"/>
+      <c r="P13" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="78"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="80"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>64</v>
@@ -2948,18 +3035,18 @@
       <c r="M14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="89"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="67"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O14" s="74"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="80"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="4"/>
@@ -2975,16 +3062,16 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="67"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="81"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="80"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="19"/>
@@ -2994,16 +3081,16 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="81"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="80"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="4"/>
@@ -3015,16 +3102,16 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="67"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N17" s="81"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="80"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="19"/>
@@ -3034,16 +3121,16 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="67"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N18" s="81"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="80"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="4"/>
@@ -3055,28 +3142,53 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="67"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="81"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="80"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -3093,31 +3205,6 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3134,30 +3221,30 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.26953125" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
@@ -3165,39 +3252,39 @@
       <c r="D1" s="60"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="96" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="96"/>
       <c r="D5" s="96"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>69</v>
       </c>
@@ -3208,45 +3295,45 @@
         <v>67</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="92" t="s">
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="94"/>
-    </row>
-    <row r="7" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="79">
+      <c r="R6" s="98"/>
+    </row>
+    <row r="7" spans="2:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="64">
         <v>1</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="91" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="23" t="s">
         <v>33</v>
       </c>
@@ -3265,14 +3352,14 @@
       <c r="P7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="68" t="s">
+      <c r="Q7" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="69"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="97"/>
-      <c r="C8" s="99"/>
+      <c r="R7" s="84"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="90"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="2" t="s">
         <v>77</v>
       </c>
@@ -3292,12 +3379,12 @@
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="91"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="97"/>
-      <c r="C9" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="100"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="90"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
@@ -3327,14 +3414,14 @@
       <c r="P9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="74" t="s">
+      <c r="Q9" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="R9" s="75"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
+      <c r="R9" s="78"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="90"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
@@ -3364,14 +3451,14 @@
       <c r="P10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="90" t="s">
+      <c r="Q10" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="91"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="97"/>
-      <c r="C11" s="99"/>
+      <c r="R10" s="100"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="90"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="2" t="s">
         <v>85</v>
       </c>
@@ -3401,14 +3488,14 @@
       <c r="P11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="90" t="s">
+      <c r="Q11" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="91"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="80"/>
-      <c r="C12" s="100"/>
+      <c r="R11" s="100"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B12" s="65"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="2" t="s">
         <v>87</v>
       </c>
@@ -3438,16 +3525,16 @@
       <c r="P12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="90" t="s">
+      <c r="Q12" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="91"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="79">
+      <c r="R12" s="100"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="64">
         <v>2</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="64" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3481,14 +3568,14 @@
       <c r="P13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="74" t="s">
+      <c r="Q13" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="75"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
+      <c r="R13" s="78"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="2" t="s">
         <v>92</v>
       </c>
@@ -3510,12 +3597,12 @@
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="100"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="2" t="s">
         <v>93</v>
       </c>
@@ -3537,12 +3624,12 @@
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="91"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="100"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
@@ -3558,12 +3645,12 @@
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="91"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="100"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="2" t="s">
         <v>95</v>
       </c>
@@ -3579,12 +3666,12 @@
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="91"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="100"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="2" t="s">
         <v>96</v>
       </c>
@@ -3600,14 +3687,14 @@
       <c r="N18" s="34"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="91"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="79">
+      <c r="Q18" s="99"/>
+      <c r="R18" s="100"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="64">
         <v>3</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="91" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3625,12 +3712,12 @@
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="91"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="97"/>
-      <c r="C20" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="100"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B20" s="90"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="2" t="s">
         <v>99</v>
       </c>
@@ -3646,12 +3733,12 @@
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="91"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="97"/>
-      <c r="C21" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="100"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B21" s="90"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="2" t="s">
         <v>100</v>
       </c>
@@ -3667,12 +3754,12 @@
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="91"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="97"/>
-      <c r="C22" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="100"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B22" s="90"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="2" t="s">
         <v>101</v>
       </c>
@@ -3688,12 +3775,12 @@
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="91"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="100"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B23" s="90"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
@@ -3709,12 +3796,12 @@
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="91"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="80"/>
-      <c r="C24" s="100"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="100"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B24" s="65"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="2" t="s">
         <v>103</v>
       </c>
@@ -3730,14 +3817,14 @@
       <c r="N24" s="34"/>
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="91"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="79">
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B25" s="64">
         <v>4</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="91" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3755,31 +3842,31 @@
       <c r="N25" s="34"/>
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
-      <c r="C26" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="100"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B26" s="90"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="97"/>
-      <c r="C27" s="99"/>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B27" s="90"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="97"/>
-      <c r="C28" s="99"/>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B28" s="90"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
       <c r="I28" s="95"/>
       <c r="J28" s="95"/>
       <c r="K28" s="95"/>
@@ -3787,28 +3874,52 @@
       <c r="M28" s="95"/>
       <c r="N28" s="43"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="97"/>
-      <c r="C29" s="99"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B29" s="90"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
       <c r="N29" s="44"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="80"/>
-      <c r="C30" s="100"/>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B30" s="65"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3825,30 +3936,6 @@
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3870,19 +3957,19 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" customWidth="1"/>
+    <col min="13" max="13" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
@@ -3890,55 +3977,55 @@
       <c r="D1" s="60"/>
       <c r="E1" s="61"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="72" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="72"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="113"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="133"/>
+      <c r="N4" s="87"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="121"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="26" t="s">
         <v>33</v>
       </c>
@@ -3954,10 +4041,10 @@
       <c r="J5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="127" t="s">
+      <c r="K5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="128"/>
+      <c r="L5" s="105"/>
       <c r="M5" s="26" t="s">
         <v>39</v>
       </c>
@@ -3965,11 +4052,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="119" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -3993,10 +4080,10 @@
       <c r="J6" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="129" t="s">
+      <c r="K6" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="130" t="s">
+      <c r="L6" s="107" t="s">
         <v>47</v>
       </c>
       <c r="M6" s="29" t="s">
@@ -4006,12 +4093,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="12">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="111"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="31" t="s">
         <v>113</v>
       </c>
@@ -4033,10 +4120,10 @@
       <c r="J7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="136" t="s">
+      <c r="K7" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="137"/>
+      <c r="L7" s="114"/>
       <c r="M7" s="8" t="s">
         <v>114</v>
       </c>
@@ -4044,12 +4131,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="111"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="31" t="s">
         <v>115</v>
       </c>
@@ -4082,12 +4169,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="111"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="31" t="s">
         <v>50</v>
       </c>
@@ -4109,10 +4196,10 @@
       <c r="J9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="139"/>
+      <c r="K9" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="116"/>
       <c r="M9" s="12" t="s">
         <v>50</v>
       </c>
@@ -4120,12 +4207,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="31" t="s">
         <v>52</v>
       </c>
@@ -4147,10 +4234,10 @@
       <c r="J10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="131" t="s">
+      <c r="K10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="132"/>
+      <c r="L10" s="109"/>
       <c r="M10" s="6" t="s">
         <v>62</v>
       </c>
@@ -4158,12 +4245,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="111"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="31" t="s">
         <v>52</v>
       </c>
@@ -4185,10 +4272,10 @@
       <c r="J11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="131" t="s">
+      <c r="K11" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="132"/>
+      <c r="L11" s="109"/>
       <c r="M11" s="5" t="s">
         <v>48</v>
       </c>
@@ -4196,12 +4283,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="111"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="31" t="s">
         <v>52</v>
       </c>
@@ -4223,10 +4310,10 @@
       <c r="J12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="131" t="s">
+      <c r="K12" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="132"/>
+      <c r="L12" s="109"/>
       <c r="M12" s="5" t="s">
         <v>48</v>
       </c>
@@ -4234,12 +4321,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="112"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="32" t="s">
         <v>50</v>
       </c>
@@ -4261,10 +4348,10 @@
       <c r="J13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="126"/>
+      <c r="K13" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="103"/>
       <c r="M13" s="25" t="s">
         <v>50</v>
       </c>
@@ -4272,7 +4359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
@@ -4287,7 +4374,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27" t="s">
         <v>119</v>
       </c>
@@ -4299,100 +4386,100 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="104" t="s">
+    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="107"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="104" t="s">
+      <c r="H17" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="105"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="104" t="s">
+      <c r="I17" s="133"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="105"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="107"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="118" t="s">
+      <c r="N17" s="133"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="132"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="102" t="s">
+      <c r="F18" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="124" t="s">
+      <c r="G18" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="120" t="s">
+      <c r="H18" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="103" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="103" t="s">
+      <c r="K18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="102" t="s">
+      <c r="L18" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="108" t="s">
+      <c r="M18" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="103" t="s">
+      <c r="N18" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="O18" s="103" t="s">
+      <c r="O18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="102" t="s">
+      <c r="P18" s="129" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="102"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" s="126"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="129"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="42" t="s">
         <v>110</v>
       </c>
@@ -4407,10 +4494,10 @@
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="116" t="s">
+      <c r="H20" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="117"/>
+      <c r="I20" s="125"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
@@ -4433,25 +4520,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -4468,12 +4547,20 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4488,39 +4575,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F33B42-28C1-449D-841F-4540C948C267}">
   <dimension ref="B3:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="28.42578125" customWidth="1"/>
-    <col min="17" max="17" width="30.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24.54296875" customWidth="1"/>
+    <col min="14" max="14" width="31.1796875" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" customWidth="1"/>
+    <col min="16" max="16" width="28.453125" customWidth="1"/>
+    <col min="17" max="17" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="81" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="96" t="s">
         <v>67</v>
       </c>
@@ -4538,7 +4625,7 @@
       <c r="M5" s="144"/>
       <c r="N5" s="145"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>69</v>
       </c>
@@ -4549,55 +4636,55 @@
         <v>67</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="85" t="s">
         <v>73</v>
       </c>
       <c r="K6" s="141" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="142"/>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="94"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79">
+      <c r="N6" s="98"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="64">
         <v>1</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="91" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="23" t="s">
         <v>137</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="69"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="97"/>
-      <c r="C8" s="99"/>
+      <c r="N7" s="84"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="90"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="2" t="s">
         <v>141</v>
       </c>
@@ -4617,16 +4704,16 @@
       <c r="L8" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="90" t="s">
+      <c r="M8" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="N8" s="91"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="79">
+      <c r="N8" s="100"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="64">
         <v>2</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="91" t="s">
         <v>160</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -4648,14 +4735,14 @@
       <c r="L9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="75"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="80"/>
-      <c r="C10" s="100"/>
+      <c r="N9" s="78"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="65"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="2" t="s">
         <v>159</v>
       </c>
@@ -4675,12 +4762,12 @@
       <c r="L10" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="90" t="s">
+      <c r="M10" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="N10" s="91"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="100"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G11" s="19">
         <v>4</v>
       </c>
@@ -4697,14 +4784,14 @@
       <c r="L11" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="N11" s="67"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="N11" s="80"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="95"/>
       <c r="J14" s="95"/>
       <c r="K14" s="95"/>
@@ -4712,16 +4799,24 @@
       <c r="M14" s="95"/>
       <c r="N14" s="43"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
@@ -4735,14 +4830,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4753,64 +4840,307 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DEDBDA-EC64-4D44-924D-D812986DAA10}">
+  <dimension ref="B6:Q15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="7.54296875" customWidth="1"/>
+    <col min="3" max="3" width="24.90625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="10" max="10" width="32.1796875" customWidth="1"/>
+    <col min="11" max="11" width="16" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="5.81640625" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="8.7265625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="G8" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="87"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="156">
+        <v>0.4375</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="G12" s="23">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="36">
+        <v>3</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="P13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="G14" s="36">
+        <v>4</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="157">
+        <v>0.4375</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="P14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:Q8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35C94C6-2D77-44D6-B35E-3CA88D3AC0E8}">
   <dimension ref="B3:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" customWidth="1"/>
     <col min="8" max="8" width="43" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
-    <col min="14" max="14" width="40.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
+    <col min="13" max="13" width="23.7265625" customWidth="1"/>
+    <col min="14" max="14" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="146" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="148"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="151"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="69"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="113"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="133"/>
+      <c r="I4" s="84"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="121"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="26" t="s">
         <v>137</v>
       </c>
@@ -4824,11 +5154,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="119" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -4837,68 +5167,100 @@
       <c r="E6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="152">
+        <v>0.4375</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="12">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="111"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="31" t="s">
         <v>154</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="111"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="31" t="s">
         <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="153">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="111"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="31" t="s">
         <v>155</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="154">
+        <v>0.4375</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="31" t="s">
         <v>52</v>
       </c>
@@ -4918,12 +5280,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="111"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="31" t="s">
         <v>52</v>
       </c>
@@ -4943,12 +5305,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="111"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="31" t="s">
         <v>52</v>
       </c>
@@ -4968,12 +5330,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="112"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="32" t="s">
         <v>52</v>
       </c>
@@ -4993,7 +5355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
@@ -5008,7 +5370,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="27" t="s">
         <v>119</v>
       </c>
@@ -5020,100 +5382,100 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="104" t="s">
+    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="107"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="104" t="s">
+      <c r="H17" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="105"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="149" t="s">
+      <c r="I17" s="133"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="151"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="118" t="s">
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="148"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="102" t="s">
+      <c r="F18" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="124" t="s">
+      <c r="G18" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="120" t="s">
+      <c r="H18" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="121"/>
-      <c r="J18" s="103" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="103" t="s">
+      <c r="K18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="102" t="s">
+      <c r="L18" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="108" t="s">
+      <c r="M18" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="103" t="s">
+      <c r="N18" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="O18" s="103" t="s">
+      <c r="O18" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="102" t="s">
+      <c r="P18" s="129" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="118"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="102"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" s="126"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="129"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="42" t="s">
         <v>110</v>
       </c>
@@ -5132,10 +5494,10 @@
       <c r="G20" s="46">
         <v>2</v>
       </c>
-      <c r="H20" s="116" t="s">
+      <c r="H20" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="117"/>
+      <c r="I20" s="125"/>
       <c r="J20" s="2">
         <v>2</v>
       </c>
@@ -5160,6 +5522,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -5172,21 +5549,6 @@
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5197,9 +5559,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5347,19 +5712,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5383,9 +5744,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9AA70D-FB99-4567-94E2-19B8001A2D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFA128A-FA0B-45F0-A817-21C9CD3CADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -821,9 +821,6 @@
     <t>"21:53"</t>
   </si>
   <si>
-    <t>&lt;current date&gt;</t>
-  </si>
-  <si>
     <t>Error message :"invalid date"</t>
   </si>
   <si>
@@ -930,6 +927,9 @@
   </si>
   <si>
     <t>1,3,6</t>
+  </si>
+  <si>
+    <t>&lt;current date -1&gt;</t>
   </si>
 </sst>
 </file>
@@ -1792,6 +1792,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1807,6 +1821,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1843,49 +1902,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1903,26 +1938,74 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1972,75 +2055,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -2056,6 +2070,15 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2065,29 +2088,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2401,36 +2401,36 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="9" max="9" width="32.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="59" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
       <c r="H1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="51"/>
       <c r="J1" s="51"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H2" s="62" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -2439,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="37"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
@@ -2473,40 +2473,40 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -2530,32 +2530,32 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2589,25 +2589,25 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C26" s="50"/>
     </row>
   </sheetData>
@@ -2635,63 +2635,63 @@
       <selection activeCell="B3" sqref="B3:Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.42578125" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="66" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="69" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="G5" s="70" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="G5" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>24</v>
       </c>
@@ -2704,39 +2704,39 @@
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="87" t="s">
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="87"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q6" s="78"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="84" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="86"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="23" t="s">
         <v>33</v>
       </c>
@@ -2752,20 +2752,20 @@
       <c r="M7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="83" t="s">
+      <c r="N7" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="83" t="s">
+      <c r="O7" s="75"/>
+      <c r="P7" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="84"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q7" s="75"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>40</v>
@@ -2791,22 +2791,22 @@
       <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="82" t="s">
+      <c r="O8" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="81" t="s">
+      <c r="P8" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="82"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q8" s="71"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="84" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2834,22 +2834,22 @@
       <c r="M9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="82" t="s">
+      <c r="N9" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="82"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="P9" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="71"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>53</v>
@@ -2875,20 +2875,20 @@
       <c r="M10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="75" t="s">
+      <c r="N10" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="75" t="s">
+      <c r="O10" s="83"/>
+      <c r="P10" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="76"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="83"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="84" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2916,20 +2916,20 @@
       <c r="M11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="76"/>
-      <c r="P11" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="76"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N11" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="83"/>
+      <c r="P11" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="83"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>59</v>
@@ -2959,16 +2959,16 @@
         <v>46</v>
       </c>
       <c r="O12" s="9"/>
-      <c r="P12" s="77" t="s">
+      <c r="P12" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="78"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q12" s="81"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="85" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2996,20 +2996,20 @@
       <c r="M13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="78"/>
-      <c r="P13" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="78"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N13" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="81"/>
+      <c r="P13" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="81"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>64</v>
@@ -3035,18 +3035,18 @@
       <c r="M14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="73" t="s">
+      <c r="N14" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="74"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="80"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="O14" s="95"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="84" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="4"/>
@@ -3062,16 +3062,16 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="80"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="73"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="19"/>
@@ -3081,16 +3081,16 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="80"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N16" s="70"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="84" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="4"/>
@@ -3102,16 +3102,16 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="80"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N17" s="70"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="73"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="84"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="19"/>
@@ -3121,16 +3121,16 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="80"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N18" s="70"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="73"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="84" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="4"/>
@@ -3142,53 +3142,28 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="80"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N19" s="70"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="73"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -3205,6 +3180,31 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3224,67 +3224,67 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.26953125" customWidth="1"/>
-    <col min="18" max="18" width="9.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="66" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="96" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>69</v>
       </c>
@@ -3295,45 +3295,45 @@
         <v>67</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="97" t="s">
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="98"/>
-    </row>
-    <row r="7" spans="2:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="64">
+      <c r="R6" s="100"/>
+    </row>
+    <row r="7" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="85">
         <v>1</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="104" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="86"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="23" t="s">
         <v>33</v>
       </c>
@@ -3352,14 +3352,14 @@
       <c r="P7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="83" t="s">
+      <c r="Q7" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="84"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="90"/>
-      <c r="C8" s="92"/>
+      <c r="R7" s="75"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="103"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="2" t="s">
         <v>77</v>
       </c>
@@ -3379,12 +3379,12 @@
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="100"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="90"/>
-      <c r="C9" s="92"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="97"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="103"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
@@ -3414,14 +3414,14 @@
       <c r="P9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="77" t="s">
+      <c r="Q9" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="R9" s="78"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="90"/>
-      <c r="C10" s="92"/>
+      <c r="R9" s="81"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="103"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
@@ -3451,14 +3451,14 @@
       <c r="P10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="99" t="s">
+      <c r="Q10" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="100"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="90"/>
-      <c r="C11" s="92"/>
+      <c r="R10" s="97"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="103"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="2" t="s">
         <v>85</v>
       </c>
@@ -3488,14 +3488,14 @@
       <c r="P11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="99" t="s">
+      <c r="Q11" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="100"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="65"/>
-      <c r="C12" s="93"/>
+      <c r="R11" s="97"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="86"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="2" t="s">
         <v>87</v>
       </c>
@@ -3525,16 +3525,16 @@
       <c r="P12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="99" t="s">
+      <c r="Q12" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="100"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="64">
+      <c r="R12" s="97"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="85">
         <v>2</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="85" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3568,14 +3568,14 @@
       <c r="P13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="77" t="s">
+      <c r="Q13" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="78"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
+      <c r="R13" s="81"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="2" t="s">
         <v>92</v>
       </c>
@@ -3597,12 +3597,12 @@
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="100"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="97"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="2" t="s">
         <v>93</v>
       </c>
@@ -3624,12 +3624,12 @@
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="100"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="97"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
@@ -3645,12 +3645,12 @@
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="100"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="97"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="2" t="s">
         <v>95</v>
       </c>
@@ -3666,12 +3666,12 @@
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="100"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="2" t="s">
         <v>96</v>
       </c>
@@ -3687,14 +3687,14 @@
       <c r="N18" s="34"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="100"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B19" s="64">
+      <c r="Q18" s="96"/>
+      <c r="R18" s="97"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="85">
         <v>3</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="104" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3712,12 +3712,12 @@
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="100"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B20" s="90"/>
-      <c r="C20" s="92"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="103"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="2" t="s">
         <v>99</v>
       </c>
@@ -3733,12 +3733,12 @@
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="100"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B21" s="90"/>
-      <c r="C21" s="92"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="97"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="103"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="2" t="s">
         <v>100</v>
       </c>
@@ -3754,12 +3754,12 @@
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="100"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B22" s="90"/>
-      <c r="C22" s="92"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="97"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="103"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="2" t="s">
         <v>101</v>
       </c>
@@ -3775,12 +3775,12 @@
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="100"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B23" s="90"/>
-      <c r="C23" s="92"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="103"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
@@ -3796,12 +3796,12 @@
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="100"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B24" s="65"/>
-      <c r="C24" s="93"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="86"/>
+      <c r="C24" s="106"/>
       <c r="D24" s="2" t="s">
         <v>103</v>
       </c>
@@ -3817,14 +3817,14 @@
       <c r="N24" s="34"/>
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B25" s="64">
+      <c r="Q24" s="96"/>
+      <c r="R24" s="97"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="85">
         <v>4</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="104" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3842,68 +3842,76 @@
       <c r="N25" s="34"/>
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="100"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B26" s="90"/>
-      <c r="C26" s="92"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="97"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="103"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B27" s="90"/>
-      <c r="C27" s="92"/>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="103"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B28" s="90"/>
-      <c r="C28" s="92"/>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="103"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
       <c r="N28" s="43"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B29" s="90"/>
-      <c r="C29" s="92"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="103"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
       <c r="N29" s="44"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B30" s="65"/>
-      <c r="C30" s="93"/>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="86"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="B5:D5"/>
@@ -3920,22 +3928,14 @@
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3957,75 +3957,75 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" customWidth="1"/>
-    <col min="13" max="13" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="117" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="71" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="87" t="s">
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="87"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="121"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="110"/>
+      <c r="N4" s="78"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="119"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="26" t="s">
         <v>33</v>
       </c>
@@ -4041,10 +4041,10 @@
       <c r="J5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="105"/>
+      <c r="L5" s="134"/>
       <c r="M5" s="26" t="s">
         <v>39</v>
       </c>
@@ -4052,11 +4052,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="117" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -4080,10 +4080,10 @@
       <c r="J6" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="136" t="s">
         <v>47</v>
       </c>
       <c r="M6" s="29" t="s">
@@ -4093,12 +4093,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="31" t="s">
         <v>113</v>
       </c>
@@ -4120,10 +4120,10 @@
       <c r="J7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="113" t="s">
+      <c r="K7" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="114"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="8" t="s">
         <v>114</v>
       </c>
@@ -4131,12 +4131,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="119"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="31" t="s">
         <v>115</v>
       </c>
@@ -4169,12 +4169,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="31" t="s">
         <v>50</v>
       </c>
@@ -4196,10 +4196,10 @@
       <c r="J9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="116"/>
+      <c r="K9" s="144" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="145"/>
       <c r="M9" s="12" t="s">
         <v>50</v>
       </c>
@@ -4207,12 +4207,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="31" t="s">
         <v>52</v>
       </c>
@@ -4234,10 +4234,10 @@
       <c r="J10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="108" t="s">
+      <c r="K10" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="109"/>
+      <c r="L10" s="138"/>
       <c r="M10" s="6" t="s">
         <v>62</v>
       </c>
@@ -4245,12 +4245,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="119"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="31" t="s">
         <v>52</v>
       </c>
@@ -4272,10 +4272,10 @@
       <c r="J11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="108" t="s">
+      <c r="K11" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="109"/>
+      <c r="L11" s="138"/>
       <c r="M11" s="5" t="s">
         <v>48</v>
       </c>
@@ -4283,12 +4283,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="119"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="31" t="s">
         <v>52</v>
       </c>
@@ -4310,10 +4310,10 @@
       <c r="J12" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="108" t="s">
+      <c r="K12" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="109"/>
+      <c r="L12" s="138"/>
       <c r="M12" s="5" t="s">
         <v>48</v>
       </c>
@@ -4321,12 +4321,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="120"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="32" t="s">
         <v>50</v>
       </c>
@@ -4348,10 +4348,10 @@
       <c r="J13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="103"/>
+      <c r="K13" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="132"/>
       <c r="M13" s="25" t="s">
         <v>50</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
@@ -4374,7 +4374,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>119</v>
       </c>
@@ -4386,100 +4386,100 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="130" t="s">
+    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="130" t="s">
+      <c r="H17" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="133"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="130" t="s">
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="133"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="132"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="126" t="s">
+      <c r="N17" s="111"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="113"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="138" t="s">
+      <c r="G18" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="134" t="s">
+      <c r="H18" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="135"/>
-      <c r="J18" s="128" t="s">
+      <c r="I18" s="127"/>
+      <c r="J18" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="128" t="s">
+      <c r="K18" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="129" t="s">
+      <c r="L18" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="139" t="s">
+      <c r="M18" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="128" t="s">
+      <c r="N18" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="O18" s="128" t="s">
+      <c r="O18" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="129" t="s">
+      <c r="P18" s="108" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="129"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="108"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
         <v>110</v>
       </c>
@@ -4494,10 +4494,10 @@
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="124" t="s">
+      <c r="H20" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="125"/>
+      <c r="I20" s="123"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
@@ -4520,17 +4520,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -4547,20 +4555,12 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4579,53 +4579,53 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="12" max="12" width="24.54296875" customWidth="1"/>
-    <col min="14" max="14" width="31.1796875" customWidth="1"/>
-    <col min="15" max="15" width="18.453125" customWidth="1"/>
-    <col min="16" max="16" width="28.453125" customWidth="1"/>
-    <col min="17" max="17" width="30.54296875" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="17" max="17" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="66" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="96" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="145"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="151"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>69</v>
       </c>
@@ -4636,55 +4636,55 @@
         <v>67</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="141" t="s">
+      <c r="K6" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="142"/>
-      <c r="M6" s="97" t="s">
+      <c r="L6" s="148"/>
+      <c r="M6" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="98"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="64">
+      <c r="N6" s="100"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="85">
         <v>1</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="104" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="86"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="23" t="s">
         <v>137</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="84"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="90"/>
-      <c r="C8" s="92"/>
+      <c r="N7" s="75"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="103"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="2" t="s">
         <v>141</v>
       </c>
@@ -4704,20 +4704,20 @@
       <c r="L8" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="N8" s="100"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="64">
+      <c r="N8" s="97"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="85">
         <v>2</v>
       </c>
-      <c r="C9" s="91" t="s">
-        <v>160</v>
+      <c r="C9" s="104" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G9" s="19">
         <v>2</v>
@@ -4735,16 +4735,16 @@
       <c r="L9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="M9" s="79" t="s">
+      <c r="M9" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="78"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="65"/>
-      <c r="C10" s="93"/>
+      <c r="N9" s="81"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="86"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="23">
         <v>3</v>
@@ -4760,14 +4760,14 @@
         <v>147</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="M10" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="N10" s="100"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N10" s="97"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G11" s="19">
         <v>4</v>
       </c>
@@ -4782,41 +4782,33 @@
         <v>147</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="M11" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="N11" s="80"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
+        <v>157</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" s="73"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
       <c r="N14" s="43"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
       <c r="N15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
@@ -4830,6 +4822,14 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4843,62 +4843,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DEDBDA-EC64-4D44-924D-D812986DAA10}">
   <dimension ref="B6:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.54296875" customWidth="1"/>
-    <col min="3" max="3" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="37.54296875" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" customWidth="1"/>
-    <col min="10" max="10" width="32.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
     <col min="11" max="11" width="16" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="5.81640625" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="66" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="69" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="G8" s="70" t="s">
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="G8" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>24</v>
       </c>
@@ -4911,158 +4911,158 @@
       <c r="E9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="87" t="s">
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="87"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q9" s="78"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="155" t="s">
-        <v>178</v>
+      <c r="C10" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>177</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="86"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="23" t="s">
         <v>137</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="23">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="62">
+        <v>0.4375</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="156">
-        <v>0.4375</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="P11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="63" t="s">
-        <v>168</v>
+      <c r="C12" s="84" t="s">
+        <v>167</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="23">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P12" t="s">
         <v>164</v>
       </c>
-      <c r="P12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="63"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G13" s="36">
         <v>3</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I13" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>182</v>
-      </c>
       <c r="P13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="63" t="s">
-        <v>169</v>
+      <c r="C14" s="84" t="s">
+        <v>168</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="36">
         <v>4</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="I14" s="157">
+        <v>183</v>
+      </c>
+      <c r="I14" s="63">
         <v>0.4375</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5086,61 +5086,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35C94C6-2D77-44D6-B35E-3CA88D3AC0E8}">
   <dimension ref="B3:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="28.1796875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
     <col min="8" max="8" width="43" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.453125" customWidth="1"/>
-    <col min="13" max="13" width="23.7265625" customWidth="1"/>
-    <col min="14" max="14" width="40.1796875" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" customWidth="1"/>
+    <col min="14" max="14" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="149" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="71" t="s">
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="154"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="83" t="s">
+      <c r="G4" s="79"/>
+      <c r="H4" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="121"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="110"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="119"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="26" t="s">
         <v>137</v>
       </c>
@@ -5154,11 +5154,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="117" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -5167,105 +5167,105 @@
       <c r="E6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="152">
+      <c r="F6" s="58">
         <v>0.4375</v>
       </c>
       <c r="G6" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="56" t="s">
-        <v>162</v>
-      </c>
       <c r="I6" s="56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="H7" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="119"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="31" t="s">
         <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="153">
+      <c r="F8" s="59">
         <v>1.0416666666666667</v>
       </c>
       <c r="G8" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="154">
+      <c r="F9" s="60">
         <v>0.4375</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="31" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>142</v>
@@ -5280,17 +5280,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="119"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="31" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>144</v>
@@ -5302,15 +5302,15 @@
         <v>146</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="119"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="31" t="s">
         <v>52</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>147</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>145</v>
@@ -5330,12 +5330,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="120"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="32" t="s">
         <v>52</v>
       </c>
@@ -5346,16 +5346,16 @@
         <v>147</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="H13" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
@@ -5370,7 +5370,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>119</v>
       </c>
@@ -5382,108 +5382,108 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="130" t="s">
+    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="130" t="s">
+      <c r="H17" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="133"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="146" t="s">
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="148"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="126" t="s">
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="157"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="138" t="s">
+      <c r="G18" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="134" t="s">
+      <c r="H18" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="135"/>
-      <c r="J18" s="128" t="s">
+      <c r="I18" s="127"/>
+      <c r="J18" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="128" t="s">
+      <c r="K18" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="129" t="s">
+      <c r="L18" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="139" t="s">
+      <c r="M18" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="128" t="s">
+      <c r="N18" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="O18" s="128" t="s">
+      <c r="O18" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="129" t="s">
+      <c r="P18" s="108" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="129"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="108"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
         <v>110</v>
       </c>
       <c r="C20" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D20" s="40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20" s="40">
         <v>2</v>
@@ -5494,10 +5494,10 @@
       <c r="G20" s="46">
         <v>2</v>
       </c>
-      <c r="H20" s="124" t="s">
+      <c r="H20" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="125"/>
+      <c r="I20" s="123"/>
       <c r="J20" s="2">
         <v>2</v>
       </c>
@@ -5522,21 +5522,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -5549,6 +5534,21 @@
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5559,12 +5559,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5712,15 +5709,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5744,10 +5745,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>